--- a/docentes/Sanchez Contreras Jose Octavio - Estadisticos 20242.xlsx
+++ b/docentes/Sanchez Contreras Jose Octavio - Estadisticos 20242.xlsx
@@ -79,22 +79,22 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>ELIZALDE</t>
+  </si>
+  <si>
     <t>ARIAS</t>
   </si>
   <si>
-    <t>ELIZALDE</t>
+    <t>MORALES</t>
   </si>
   <si>
     <t>SOTO</t>
   </si>
   <si>
-    <t>MORALES</t>
+    <t>JOSE CARMELO</t>
   </si>
   <si>
     <t>IGNACIO</t>
-  </si>
-  <si>
-    <t>JOSE CARMELO</t>
   </si>
 </sst>
 </file>
@@ -838,7 +838,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>21330051920396</v>
+        <v>22330051920298</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -850,10 +850,10 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>22330051920298</v>
+        <v>21330051920396</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -873,10 +873,10 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>3</v>

--- a/docentes/Sanchez Contreras Jose Octavio - Estadisticos 20242.xlsx
+++ b/docentes/Sanchez Contreras Jose Octavio - Estadisticos 20242.xlsx
@@ -618,16 +618,19 @@
         <v>11</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>8.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -641,16 +644,19 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>94.12</v>
+      </c>
+      <c r="H3">
+        <v>7.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -664,16 +670,19 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="H4">
+        <v>7.1</v>
       </c>
     </row>
   </sheetData>
@@ -741,7 +750,7 @@
         <v>100</v>
       </c>
       <c r="H2">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -767,7 +776,7 @@
         <v>94.12</v>
       </c>
       <c r="H3">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -793,7 +802,7 @@
         <v>96</v>
       </c>
       <c r="H4">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
